--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/74.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/74.xlsx
@@ -479,13 +479,13 @@
         <v>-0.04686328389979655</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.671117885724885</v>
+        <v>-1.671526343686863</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2037605961600171</v>
+        <v>-0.2041761372080405</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3119445043861346</v>
+        <v>-0.3123647674915219</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.03965102322458412</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.811132395631506</v>
+        <v>-1.811544788641287</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1895110010548819</v>
+        <v>-0.1899784847339082</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3140237836453729</v>
+        <v>-0.3139655449378847</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.04383984078729762</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.988809248063049</v>
+        <v>-1.989595470614138</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2622133702486394</v>
+        <v>-0.2642312627621469</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3451201054057892</v>
+        <v>-0.345370374446076</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.06291578140715508</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.017498894586996</v>
+        <v>-2.017832586640712</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2358328097756399</v>
+        <v>-0.2381670801325288</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3497839240622032</v>
+        <v>-0.3496879088958038</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.09138390401616717</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.955419580442897</v>
+        <v>-1.954603451528503</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1894338741179382</v>
+        <v>-0.1918987880618951</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3634369659203653</v>
+        <v>-0.3632968782185696</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1243548502455251</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.709520804246379</v>
+        <v>-1.70806955861654</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1635648698593614</v>
+        <v>-0.1661509832756584</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3808141370195249</v>
+        <v>-0.3804222062583211</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1593274439850884</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.485283679197201</v>
+        <v>-1.483682114741278</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.04546464116904949</v>
+        <v>-0.04839861281115397</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3638855613699361</v>
+        <v>-0.3638682471596017</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.193399754882611</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.201447894139094</v>
+        <v>-1.200054887216743</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003174123698263062</v>
+        <v>0.001467886970773117</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3165611024689096</v>
+        <v>-0.3162226883578299</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2170340276867215</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.017142060178193</v>
+        <v>-1.016699760805108</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1474030698021664</v>
+        <v>0.146170612830188</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3096905090044321</v>
+        <v>-0.3097692099604971</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2186502473528162</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7857179638211564</v>
+        <v>-0.7855448217178134</v>
       </c>
       <c r="F11" t="n">
-        <v>0.171820828430904</v>
+        <v>0.1717263872836259</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2952378654326491</v>
+        <v>-0.2961476484847609</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1889748146449188</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5582186841430828</v>
+        <v>-0.5582344243342958</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1640247117231017</v>
+        <v>0.1648321835323289</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.248941241017832</v>
+        <v>-0.2491584556565715</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1223515651789329</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3488599748379997</v>
+        <v>-0.348568781300559</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01267467483411356</v>
+        <v>-0.01262745426047454</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1982310669868877</v>
+        <v>-0.1984325414344142</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.02076561099658894</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04032389471888145</v>
+        <v>-0.04015547467290227</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1314092332303096</v>
+        <v>-0.1305120423311683</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.08900830614071172</v>
+        <v>-0.08896895566267921</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1117356256833214</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3566216914054538</v>
+        <v>0.3559007906478981</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4079344864795358</v>
+        <v>-0.4066044403220367</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04005339171033818</v>
+        <v>0.04006283582506598</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2673794107516326</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7154413863736439</v>
+        <v>0.7143080926063073</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6120202317282617</v>
+        <v>-0.6110758202554812</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08142491029460545</v>
+        <v>0.08092122417578923</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4339270361988823</v>
       </c>
       <c r="E17" t="n">
-        <v>1.208145573780549</v>
+        <v>1.207884286606413</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7260531950091326</v>
+        <v>-0.7258580166380914</v>
       </c>
       <c r="G17" t="n">
-        <v>0.143354692622181</v>
+        <v>0.1424512056465544</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.6012748227851551</v>
       </c>
       <c r="E18" t="n">
-        <v>1.561221672975113</v>
+        <v>1.56104853087177</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9197386089138642</v>
+        <v>-0.9197047675027562</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1967847716947329</v>
+        <v>0.195749067112917</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.7675549399564643</v>
       </c>
       <c r="E19" t="n">
-        <v>1.926957607962298</v>
+        <v>1.926477532130301</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.027698219415196</v>
+        <v>-1.027597482191433</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2615477884406497</v>
+        <v>0.2606191171590823</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.9335219861878798</v>
       </c>
       <c r="E20" t="n">
-        <v>2.240201579273227</v>
+        <v>2.240864241323294</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.243565497786858</v>
+        <v>-1.243980251825321</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3329956643947305</v>
+        <v>0.3309746238429804</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.093475313077402</v>
       </c>
       <c r="E21" t="n">
-        <v>2.500859145760621</v>
+        <v>2.501907442495407</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.277481674803084</v>
+        <v>-1.277866522478243</v>
       </c>
       <c r="G21" t="n">
-        <v>0.458411933960848</v>
+        <v>0.4562476576690596</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.244545890829571</v>
       </c>
       <c r="E22" t="n">
-        <v>2.722888708992174</v>
+        <v>2.723266473581286</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.388937968782386</v>
+        <v>-1.389219718205099</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4592744964393208</v>
+        <v>0.4574895587557658</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.385680567446955</v>
       </c>
       <c r="E23" t="n">
-        <v>2.800300543396864</v>
+        <v>2.800857746165804</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.498112722045362</v>
+        <v>-1.498885565433921</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5565740624416441</v>
+        <v>0.5564024943574223</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.518461852568608</v>
       </c>
       <c r="E24" t="n">
-        <v>2.925129703830736</v>
+        <v>2.925608205643611</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.640559878503953</v>
+        <v>-1.641928488129925</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5969555229986132</v>
+        <v>0.5972278283065983</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.641226738484657</v>
       </c>
       <c r="E25" t="n">
-        <v>2.934178739759093</v>
+        <v>2.934869734153344</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.590436813605254</v>
+        <v>-1.591021561708818</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6512702008173361</v>
+        <v>0.6514984335899247</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.749276678513626</v>
       </c>
       <c r="E26" t="n">
-        <v>2.921052994306567</v>
+        <v>2.920993181579957</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.507238884910664</v>
+        <v>-1.507571789954819</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5925498434780926</v>
+        <v>0.5924207739101459</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.840620128722355</v>
       </c>
       <c r="E27" t="n">
-        <v>2.992393836960399</v>
+        <v>2.992134123805385</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.550492930364007</v>
+        <v>-1.550902175335545</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6221539951115159</v>
+        <v>0.621987149084658</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.91348763733176</v>
       </c>
       <c r="E28" t="n">
-        <v>2.932886470060506</v>
+        <v>2.931909004186178</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.503873632029323</v>
+        <v>-1.504489860515312</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6401843841460153</v>
+        <v>0.6397294926199594</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.969471118831249</v>
       </c>
       <c r="E29" t="n">
-        <v>2.800103791006701</v>
+        <v>2.798885500206814</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.658343146536409</v>
+        <v>-1.65827231567595</v>
       </c>
       <c r="G29" t="n">
-        <v>0.609371385827433</v>
+        <v>0.6097286881679683</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.009373912867992</v>
       </c>
       <c r="E30" t="n">
-        <v>2.755716451786022</v>
+        <v>2.754471402661073</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.643335661224367</v>
+        <v>-1.64285479838281</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5610427027270167</v>
+        <v>0.561447225641191</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.034037192341102</v>
       </c>
       <c r="E31" t="n">
-        <v>2.641677192428665</v>
+        <v>2.640219650722341</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.681812558644562</v>
+        <v>-1.681175867909996</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5545608919855005</v>
+        <v>0.5540745200770186</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.042858559462399</v>
       </c>
       <c r="E32" t="n">
-        <v>2.602131536025106</v>
+        <v>2.600115217530721</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.727484297468223</v>
+        <v>-1.726392715207601</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5456424996442109</v>
+        <v>0.5452568649594921</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.036411185590713</v>
       </c>
       <c r="E33" t="n">
-        <v>2.425797321904033</v>
+        <v>2.424349224312436</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.720405146470174</v>
+        <v>-1.718433687520744</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5414571828006722</v>
+        <v>0.5417562464337194</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.016045168449873</v>
       </c>
       <c r="E34" t="n">
-        <v>2.252992058652916</v>
+        <v>2.251565997329017</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.710757983275722</v>
+        <v>-1.709562515753094</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4825007225932337</v>
+        <v>0.4819592600155063</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.98273937005069</v>
       </c>
       <c r="E35" t="n">
-        <v>2.099858886379815</v>
+        <v>2.098988453805736</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.750060453725039</v>
+        <v>-1.749271870145267</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4194030180776531</v>
+        <v>0.4192424681272804</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.937948567803286</v>
       </c>
       <c r="E36" t="n">
-        <v>1.949370066230498</v>
+        <v>1.948093536723124</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.617846782583584</v>
+        <v>-1.617245507279248</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4222960652226037</v>
+        <v>0.4216129409239592</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.882101135744341</v>
       </c>
       <c r="E37" t="n">
-        <v>1.749856846529151</v>
+        <v>1.748518930276046</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.603082483225784</v>
+        <v>-1.60296915384905</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3409098325366303</v>
+        <v>0.3405808625402785</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.81632064181011</v>
       </c>
       <c r="E38" t="n">
-        <v>1.630914517608943</v>
+        <v>1.630681562778991</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.500635087687247</v>
+        <v>-1.500400558838173</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2941189661177248</v>
+        <v>0.2932485335436455</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.739986202018063</v>
       </c>
       <c r="E39" t="n">
-        <v>1.45841618808648</v>
+        <v>1.45815017885498</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.462490308301646</v>
+        <v>-1.462176291486946</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2794664221175367</v>
+        <v>0.2787801497806496</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.65523432228446</v>
       </c>
       <c r="E40" t="n">
-        <v>1.229007623214268</v>
+        <v>1.228559027764698</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.534058596718506</v>
+        <v>-1.533746940932489</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3006070729357262</v>
+        <v>0.2997807128970434</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.562840407736473</v>
       </c>
       <c r="E41" t="n">
-        <v>1.145480724523326</v>
+        <v>1.145576739689725</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.4737854695161</v>
+        <v>-1.473753989133674</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2013305389170492</v>
+        <v>0.2003310367750233</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.464139881079431</v>
       </c>
       <c r="E42" t="n">
-        <v>1.008912529482793</v>
+        <v>1.008314402216699</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.357707855396659</v>
+        <v>-1.356779971124652</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1624050460472832</v>
+        <v>0.1603493770748645</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.360236338079</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9220140818340248</v>
+        <v>0.92085875179899</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.293830224406474</v>
+        <v>-1.292851184513025</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1216505429585658</v>
+        <v>0.119374511309165</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.252358663501169</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7516737325268643</v>
+        <v>0.749504734177712</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.221187667939326</v>
+        <v>-1.219693923793212</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1059843306442601</v>
+        <v>0.1041584684635513</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.142925036699372</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5927292816579208</v>
+        <v>0.5913394227738124</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.188476402560455</v>
+        <v>-1.187283296066509</v>
       </c>
       <c r="G45" t="n">
-        <v>0.09062347803948667</v>
+        <v>0.08925408140395508</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.03217714867907</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4216113669048379</v>
+        <v>0.4198185591256764</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.049590464363807</v>
+        <v>-1.048046351605811</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01669967000759987</v>
+        <v>0.0147085358191545</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.9231893468636179</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3443805446990983</v>
+        <v>0.3417487847282836</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.068323652935967</v>
+        <v>-1.067677518086673</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.02211564152367509</v>
+        <v>-0.02427519575809963</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.8181239990503199</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2090526767261504</v>
+        <v>0.206584614743951</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.9424768891401739</v>
+        <v>-0.9415025713040888</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.01188923929258452</v>
+        <v>-0.01292022181703647</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.7198275675092461</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2052073480128128</v>
+        <v>0.2020640318275754</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.9138856188113076</v>
+        <v>-0.912964030615786</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.09167626855131639</v>
+        <v>-0.09263642021530981</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.6305838463313661</v>
       </c>
       <c r="E50" t="n">
-        <v>0.02726763438801269</v>
+        <v>0.02475864790865939</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.8544577398770394</v>
+        <v>-0.8538619736396271</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.09932757549995903</v>
+        <v>-0.1009519632331413</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5504678404558673</v>
       </c>
       <c r="E51" t="n">
-        <v>0.01931411576808031</v>
+        <v>0.01641792058488705</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.945911398862852</v>
+        <v>-0.9459578324269303</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.142498197939873</v>
+        <v>-0.1437526911795496</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4789294652751464</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.03216890165142258</v>
+        <v>-0.03505093066252414</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9080444338521607</v>
+        <v>-0.9082010487547302</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1514779770268934</v>
+        <v>-0.1528206153373629</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.4120334126507851</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.0983453875682674</v>
+        <v>-0.1008323377799225</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.8634194177441649</v>
+        <v>-0.8633659010940407</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1875214408855579</v>
+        <v>-0.1893945236399057</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3479467657892965</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.2014420659943411</v>
+        <v>-0.2037023574525289</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8690071856247823</v>
+        <v>-0.8689284846687173</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2385165123774576</v>
+        <v>-0.2401975647990067</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2842321132666447</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2836861391014234</v>
+        <v>-0.285663107117777</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8510334612786498</v>
+        <v>-0.8504156587735393</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2298184827131499</v>
+        <v>-0.2321464569935537</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.220069655667805</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3171670998306103</v>
+        <v>-0.3193455422944905</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8362534217296363</v>
+        <v>-0.8363132344562457</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2335583521453604</v>
+        <v>-0.2354172687276165</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.154867586796601</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.372695346391856</v>
+        <v>-0.3743228821632809</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8371655658104301</v>
+        <v>-0.8372922743496948</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.3466437559152083</v>
+        <v>-0.348039910875802</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.08849769801598494</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3932882385558329</v>
+        <v>-0.3947851307401898</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.742089301816944</v>
+        <v>-0.7424104017176893</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3558139913159061</v>
+        <v>-0.3576146691906741</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.02142676461093428</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5064916937597783</v>
+        <v>-0.5078185918790348</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7397251250967504</v>
+        <v>-0.7400934455711348</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.4087529764226122</v>
+        <v>-0.41058985673717</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.04668452449970414</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.524685780782893</v>
+        <v>-0.5250178988174874</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7294436321964143</v>
+        <v>-0.7291524386589736</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.4114854736171901</v>
+        <v>-0.4136891003870111</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1138267354073136</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5394359139686017</v>
+        <v>-0.5400293191773321</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.7414848784743645</v>
+        <v>-0.7416186700996751</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4523249737384578</v>
+        <v>-0.4540910231925571</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1794479464225922</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6473333507146426</v>
+        <v>-0.6474813085120449</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7819056895093662</v>
+        <v>-0.7818883752990319</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4861553667125735</v>
+        <v>-0.4874444883729187</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2419259087985438</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7271927848529542</v>
+        <v>-0.72775628369838</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7965173090124005</v>
+        <v>-0.7964732364770041</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.5451653435701362</v>
+        <v>-0.54706990670691</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2997169974331275</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7558808573577807</v>
+        <v>-0.7567449938553747</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8432263264369984</v>
+        <v>-0.8436339973894152</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5389542641174837</v>
+        <v>-0.5402087573571603</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3513570490884944</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8131798754304895</v>
+        <v>-0.8131830234687322</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8565747955951889</v>
+        <v>-0.8569423290600126</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5764316593956531</v>
+        <v>-0.5776200438322351</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3954838713969721</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8411336680152292</v>
+        <v>-0.8410478839731182</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9601751601400789</v>
+        <v>-0.9610235564464599</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6589291495812648</v>
+        <v>-0.6606070539645713</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4317940927736114</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9686260688023423</v>
+        <v>-0.9679736378765631</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.9249493992149301</v>
+        <v>-0.9253586441864683</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6584711100169662</v>
+        <v>-0.6601962349739118</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4598655384428275</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.017763797731107</v>
+        <v>-1.017456076992893</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.008106403412367</v>
+        <v>-1.008853275485424</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.7188693717395163</v>
+        <v>-0.720119142921829</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4801136730914966</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.0484445784435</v>
+        <v>-1.047574145869421</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9749449685648038</v>
+        <v>-0.9745270664880985</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.7479745593114873</v>
+        <v>-0.7494588593428738</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4928211913861203</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.197160266052671</v>
+        <v>-1.1958396640099</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.9709076095186676</v>
+        <v>-0.9713672231020873</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7698502770593242</v>
+        <v>-0.7712196736948558</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4987210706467952</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.200851340892121</v>
+        <v>-1.19966453047466</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.012867811254301</v>
+        <v>-1.013324276799479</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7986060323863665</v>
+        <v>-0.8003893960508002</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4988848191450023</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.178272823606623</v>
+        <v>-1.175977903727767</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.101145099653329</v>
+        <v>-1.10170230242227</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7625216440305482</v>
+        <v>-0.7635730888035771</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4942634926567663</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.134766148084312</v>
+        <v>-1.132397249306754</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.167667082767299</v>
+        <v>-1.168004709868818</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7521945045756944</v>
+        <v>-0.7534710340830693</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4847164504976964</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.137105927508125</v>
+        <v>-1.134093254909956</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.161119950232249</v>
+        <v>-1.161312767574608</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7577696803033415</v>
+        <v>-0.7588541794779177</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4696999396412547</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.059988434679119</v>
+        <v>-1.056182456443814</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.192528714788244</v>
+        <v>-1.192768752704242</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7717469701004915</v>
+        <v>-0.7730801642962333</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4481755338644685</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9700694443365749</v>
+        <v>-0.9657448268008013</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.27342227948925</v>
+        <v>-1.273850412690244</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7156001340245747</v>
+        <v>-0.7167712042508224</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4194605196573717</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.8596213096044664</v>
+        <v>-0.855735056393975</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.222406745748774</v>
+        <v>-1.222609007205861</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7253732187487307</v>
+        <v>-0.7266041017015878</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3830043534131337</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7679693242093699</v>
+        <v>-0.764489167932174</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.224396305918098</v>
+        <v>-1.224514357352195</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6854828521576074</v>
+        <v>-0.6865941096572457</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3380493055729067</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6466376342630277</v>
+        <v>-0.6429843358824888</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.287608913829533</v>
+        <v>-1.288784706113145</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6625572636558629</v>
+        <v>-0.6631695570940488</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2847628023756636</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4716019859170273</v>
+        <v>-0.4669035388399447</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.204833609269012</v>
+        <v>-1.205053971945994</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6786657753432541</v>
+        <v>-0.6794134344258719</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.223997822384959</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2497125103872693</v>
+        <v>-0.2456405229204645</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.218295407803936</v>
+        <v>-1.21872432801449</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.6109357325536855</v>
+        <v>-0.6121288390476314</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1583283972145817</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.08155689962047426</v>
+        <v>-0.07774147727044139</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.227366479999992</v>
+        <v>-1.227647442413144</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.480180390128116</v>
+        <v>-0.4805534326598643</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.09008649704494973</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1092283840532608</v>
+        <v>0.1122127243072469</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.14311395849413</v>
+        <v>-1.143988326116012</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4379557531801038</v>
+        <v>-0.4392102464197805</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.02206142432285753</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2582706806301016</v>
+        <v>0.2613526100696084</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.117075747180013</v>
+        <v>-1.117687253608639</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3472906777740629</v>
+        <v>-0.3471206837089624</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.04167446312532862</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4662599932996532</v>
+        <v>0.468745369492187</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.094304412552156</v>
+        <v>-1.095776120430572</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2736974137576492</v>
+        <v>-0.2734203863923003</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.09728280108117646</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6243182714033044</v>
+        <v>0.6268792005136606</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9872191696727066</v>
+        <v>-0.9883800087746658</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2149487240742224</v>
+        <v>-0.2143175424065808</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1404891637426637</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8483547090145165</v>
+        <v>0.8516585751501267</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9392800563048123</v>
+        <v>-0.9404928380377744</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1568737145747122</v>
+        <v>-0.156705294528733</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1679588811390588</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9573051645527075</v>
+        <v>0.9589846429551353</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.765598851412691</v>
+        <v>-0.7665684471914123</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.09429543636916073</v>
+        <v>-0.0940168349846905</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1779689039975143</v>
       </c>
       <c r="E89" t="n">
-        <v>1.200816940751773</v>
+        <v>1.203177969433724</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6073076184790874</v>
+        <v>-0.6095679099372752</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02715273099215774</v>
+        <v>0.0277382661052816</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1707499938471173</v>
       </c>
       <c r="E90" t="n">
-        <v>1.368848204007985</v>
+        <v>1.372052906938954</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5332626109748605</v>
+        <v>-0.5359195552516161</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04945343390274588</v>
+        <v>0.04851531850645067</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.148396804210423</v>
       </c>
       <c r="E91" t="n">
-        <v>1.44897679541604</v>
+        <v>1.452504172266874</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3165390662012114</v>
+        <v>-0.3189221311508606</v>
       </c>
       <c r="G91" t="n">
-        <v>0.077847164831889</v>
+        <v>0.0778550349274955</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1126102660612741</v>
       </c>
       <c r="E92" t="n">
-        <v>1.586195060353669</v>
+        <v>1.590345748776539</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2250586488903367</v>
+        <v>-0.2276353181919059</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09143094984871393</v>
+        <v>0.09103587104926746</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.06484361336510031</v>
       </c>
       <c r="E93" t="n">
-        <v>1.597265136833777</v>
+        <v>1.600823994067038</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.02138687067051287</v>
+        <v>-0.02261145754688481</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1173314344897168</v>
+        <v>0.1168466366003561</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.008278329440931733</v>
       </c>
       <c r="E94" t="n">
-        <v>1.547659924225986</v>
+        <v>1.550589173810727</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1368587157085731</v>
+        <v>0.1355632979717426</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1299550678425483</v>
+        <v>0.130194318748986</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.0510771651167933</v>
       </c>
       <c r="E95" t="n">
-        <v>1.541173391427106</v>
+        <v>1.543244800590738</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1915653242884998</v>
+        <v>0.1911875596993876</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1414973500590462</v>
+        <v>0.1413572623572504</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1056663254598605</v>
       </c>
       <c r="E96" t="n">
-        <v>1.508323612365561</v>
+        <v>1.51019826913903</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2821013301265941</v>
+        <v>0.2818888375452184</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05241731190815508</v>
+        <v>0.0522362997092055</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1503505562693818</v>
       </c>
       <c r="E97" t="n">
-        <v>1.351371869704184</v>
+        <v>1.352550810026038</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2985891804222188</v>
+        <v>0.2988662077875677</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03101537391582963</v>
+        <v>0.03141360075351871</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1843343516688305</v>
       </c>
       <c r="E98" t="n">
-        <v>1.288795165517754</v>
+        <v>1.288708594466082</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2510947274560918</v>
+        <v>0.2519761781640202</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02736837161177593</v>
+        <v>0.02745179462520487</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2094532040418881</v>
       </c>
       <c r="E99" t="n">
-        <v>1.184141782180713</v>
+        <v>1.184401495335728</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2252839619050031</v>
+        <v>0.2261591165364463</v>
       </c>
       <c r="G99" t="n">
-        <v>0.06029055555290112</v>
+        <v>0.05990334684906115</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2301141054376153</v>
       </c>
       <c r="E100" t="n">
-        <v>1.067510113330575</v>
+        <v>1.067735198064921</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2210592945834321</v>
+        <v>0.2220414825151237</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02465161460841095</v>
+        <v>0.02395432413767474</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2478023108472177</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9074874593635407</v>
+        <v>0.9063525915770829</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1883448811663186</v>
+        <v>0.1891979995300636</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.01432739491147928</v>
+        <v>-0.01512384858685743</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2679484944543979</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7382284611927139</v>
+        <v>0.7369755419721585</v>
       </c>
       <c r="F102" t="n">
-        <v>0.152981393568056</v>
+        <v>0.1536361855225171</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.03741510738271777</v>
+        <v>-0.03853423497796257</v>
       </c>
     </row>
   </sheetData>
